--- a/data/income_statement/2digits/size/61_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/61_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>61-Telecommunications</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>61-Telecommunications</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,254 +841,289 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>640451.2190299999</v>
+        <v>650067.8892699999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>537812.47234</v>
+        <v>554070.3778400001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>531620.16419</v>
+        <v>548760.27251</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>662604.9980499999</v>
+        <v>681587.5968099998</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>567273.00272</v>
+        <v>593381.30534</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>566953.16273</v>
+        <v>601598.6554599999</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>588738.52222</v>
+        <v>636759.1098</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>842020.9356400002</v>
+        <v>922646.16234</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>524171.1494400001</v>
+        <v>622118.98335</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1145754.13154</v>
+        <v>1210922.07744</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>971540.53622</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1124150.10795</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1168096.349</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>613897.2985500001</v>
+        <v>623311.57375</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>508107.25088</v>
+        <v>522411.53809</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>507425.1535</v>
+        <v>522151.79484</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>632558.81929</v>
+        <v>647989.61942</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>528834.7413100001</v>
+        <v>552439.98303</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>539322.59788</v>
+        <v>571066.5730500001</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>551023.3044200001</v>
+        <v>592643.06594</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>811445.54077</v>
+        <v>883775.79839</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>488974.29782</v>
+        <v>577121.84458</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>998986.53429</v>
+        <v>1057712.37128</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>887797.8524000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1023252.60653</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1062158.143</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>15056.29034</v>
+        <v>15060.81652</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>18080.43631</v>
+        <v>18398.36544</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>13359.73037</v>
+        <v>13724.99217</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>19758.68101</v>
+        <v>21693.87466</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>27153.68061</v>
+        <v>28603.69367</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>13380.83997</v>
+        <v>15488.15991</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>24885.88865</v>
+        <v>27129.81634</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>16180.08743</v>
+        <v>18703.07393</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>17334.62441</v>
+        <v>20734.25588</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>120692.18142</v>
+        <v>123344.11312</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>49684.09723</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>59794.24999</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>70775.306</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>11497.63014</v>
+        <v>11695.499</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>11624.78515</v>
+        <v>13260.47431</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>10835.28032</v>
+        <v>12883.4855</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>10287.49775</v>
+        <v>11904.10273</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>11284.5808</v>
+        <v>12337.62864</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>14249.72488</v>
+        <v>15043.9225</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>12829.32915</v>
+        <v>16986.22752</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>14395.30744</v>
+        <v>20167.29002</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>17862.22721</v>
+        <v>24262.88289</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>26075.41583</v>
+        <v>29865.59304</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>34058.58659</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>41103.25143</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>35162.9</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2702.62343</v>
+        <v>3821.50828</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>3367.26676</v>
+        <v>3649.76665</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>3798.63377</v>
+        <v>4111.09555</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3666.25285</v>
+        <v>4079.48833</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>6851.589910000001</v>
+        <v>7141.68784</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1498.94693</v>
+        <v>2276.191150000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>1986.29469</v>
+        <v>2265.7039</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1977.15084</v>
+        <v>2759.03129</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>1850.01345</v>
+        <v>3723.29265</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>6462.12602</v>
+        <v>6855.8736</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>22650.27283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>26811.28384</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>69015.787</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2327.62684</v>
+        <v>3444.66639</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2932.46174</v>
+        <v>3213.88953</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>3688.88708</v>
+        <v>4001.34886</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3316.632</v>
+        <v>3725.5595</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>6437.0663</v>
+        <v>6592.01815</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>941.54278</v>
+        <v>1381.42176</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1596.78927</v>
+        <v>1876.06676</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>1661.5708</v>
+        <v>2378.04447</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>755.5953699999999</v>
+        <v>2522.51648</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>5509.39542</v>
+        <v>5661.19938</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>21475.80251</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>24819.45358</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>68740.981</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>84.73036999999999</v>
+        <v>86.57567</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>34.48948</v>
+        <v>35.1015</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>97.36703999999999</v>
@@ -1196,148 +1132,168 @@
         <v>114.55184</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>298.11937</v>
+        <v>433.06545</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>455.3158</v>
+        <v>475.1007</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>276.9679</v>
+        <v>277.0996200000001</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>260.63995</v>
+        <v>289.61863</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>942.3948599999999</v>
+        <v>1009.40411</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>802.94611</v>
+        <v>803.6613600000001</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>113.50852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>124.84052</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>186.831</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>290.26622</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>400.31554</v>
+        <v>400.77562</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>12.37965</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>235.06901</v>
+        <v>239.37699</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>116.40424</v>
+        <v>116.60424</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>102.08835</v>
+        <v>419.66869</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>112.53752</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>54.94009</v>
+        <v>91.36819</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>152.02322</v>
+        <v>191.37206</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>149.78449</v>
+        <v>391.01286</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1060.9618</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1866.98974</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>87.97499999999999</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>637748.5956</v>
+        <v>646246.38099</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>534445.20558</v>
+        <v>550420.6111900001</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>527821.53042</v>
+        <v>544649.17696</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>658938.7452</v>
+        <v>677508.1084799999</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>560421.4128099999</v>
+        <v>586239.6175000001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>565454.2158000001</v>
+        <v>599322.46431</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>586752.2275299999</v>
+        <v>634493.4059</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>840043.7847999999</v>
+        <v>919887.13105</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>522321.13599</v>
+        <v>618395.6906999999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1139292.00552</v>
+        <v>1204066.20384</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>948890.26339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1097338.82411</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1099080.562</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>555682.6507100001</v>
+        <v>562033.17321</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>456254.29624</v>
+        <v>467118.90334</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>446345.46075</v>
+        <v>461758.70673</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>570710.53128</v>
+        <v>581372.90371</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>455788.25011</v>
+        <v>476497.7904000001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>472315.3448500001</v>
+        <v>497869.42625</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>490552.49918</v>
+        <v>520740.80578</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>744074.42626</v>
+        <v>797037.2285</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>429557.23333</v>
+        <v>497713.09987</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>936565.28759</v>
+        <v>987138.35835</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>741555.2777999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>863845.61858</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>850355.903</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>5346.87644</v>
@@ -1346,115 +1302,130 @@
         <v>10522.3446</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2550.75107</v>
+        <v>2929.22629</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5278.36337</v>
+        <v>5973.35809</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>6841.505939999999</v>
+        <v>7728.66571</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>6306.55922</v>
+        <v>7917.091820000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4371.72091</v>
+        <v>6783.71919</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6493.34798</v>
+        <v>8945.63867</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>11754.84432</v>
+        <v>12157.30236</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>16523.53732</v>
+        <v>18361.56244</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>20435.64624</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>25561.91809</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>31135.327</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>483723.92787</v>
+        <v>485129.3797</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>382752.29517</v>
+        <v>386594.77344</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>370407.39542</v>
+        <v>377579.33117</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>484341.72325</v>
+        <v>489151.7162</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>353940.64881</v>
+        <v>362883.54373</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>380540.04203</v>
+        <v>391319.22842</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>394884.31937</v>
+        <v>408836.87833</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>641469.77914</v>
+        <v>665460.0018499999</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>330667.38436</v>
+        <v>363446.963</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>636487.7880800001</v>
+        <v>665232.42959</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>460439.60088</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>525718.40937</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>522012.128</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>65783.17813</v>
+        <v>70728.2488</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>62696.73214</v>
+        <v>69718.86096999999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>72497.42359999999</v>
+        <v>79884.80648</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>80627.57825999999</v>
+        <v>85784.96302000001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>94779.36290000001</v>
+        <v>105574.10274</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>82519.82371000001</v>
+        <v>95684.18612</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>90524.21328999999</v>
+        <v>103844.84784</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>95253.57607</v>
+        <v>120766.91463</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>86480.66659000001</v>
+        <v>121008.18034</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>281331.19963</v>
+        <v>300744.93163</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>258233.14505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>309639.75241</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>292810.019</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>828.66827</v>
@@ -1463,436 +1434,491 @@
         <v>282.9243299999999</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>889.89066</v>
+        <v>1365.34279</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>462.8663999999999</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>226.73246</v>
+        <v>311.47822</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>2948.91989</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>772.2456100000001</v>
+        <v>1275.36042</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>857.7230700000001</v>
+        <v>1864.67335</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>654.33806</v>
+        <v>1100.65417</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>2222.76256</v>
+        <v>2799.43469</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2446.88563</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>2925.53871</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4398.429</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>82065.94489</v>
+        <v>84213.20778</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>78190.90934</v>
+        <v>83301.70784999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>81476.06967</v>
+        <v>82890.47022999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>88228.21391999999</v>
+        <v>96135.20477</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>104633.1627</v>
+        <v>109741.8271</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>93138.87094999998</v>
+        <v>101453.03806</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>96199.72835</v>
+        <v>113752.60012</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>95969.35853999999</v>
+        <v>122849.90255</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>92763.90265999999</v>
+        <v>120682.59083</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>202726.71793</v>
+        <v>216927.84549</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>207334.98559</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>233493.20553</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>248724.659</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>78156.11245</v>
+        <v>103886.45797</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>80652.77919</v>
+        <v>104070.88543</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>82654.21221000001</v>
+        <v>112235.59487</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>91804.04028999999</v>
+        <v>122589.86999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>101047.42593</v>
+        <v>125129.32084</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>98828.0033</v>
+        <v>132426.10312</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>102889.20743</v>
+        <v>129989.09201</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>103647.39921</v>
+        <v>137459.41836</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>94969.77696</v>
+        <v>135551.64658</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>202375.37476</v>
+        <v>235861.48837</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>221471.90789</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>287953.03829</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>265844.278</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>763.6361899999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>870.95105</v>
+        <v>909.62904</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>373.3096</v>
+        <v>377.59528</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>759.7491600000001</v>
+        <v>831.09813</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1874.64784</v>
+        <v>2000.96814</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1470.87367</v>
+        <v>1624.07228</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>620.81818</v>
+        <v>1409.08595</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>261.69696</v>
+        <v>910.99923</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>167.56877</v>
+        <v>168.57826</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>919.85045</v>
+        <v>2529.02201</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>323.16691</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2166.545</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>1371.016</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>13773.34498</v>
+        <v>15796.64409</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>13715.56575</v>
+        <v>15429.9045</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>12491.40511</v>
+        <v>14037.03824</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>14955.62224</v>
+        <v>18749.3513</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>14853.32285</v>
+        <v>16513.53888</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>12707.29949</v>
+        <v>14445.22141</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>14457.53525</v>
+        <v>18377.6637</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>15715.36298</v>
+        <v>20657.57244</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>15324.97</v>
+        <v>20485.99668</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>35194.83813</v>
+        <v>37931.16119</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>37218.95069</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>39924.93758</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>39090.502</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>63619.13128</v>
+        <v>87326.17769</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>66066.26239</v>
+        <v>87731.35188999999</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>69789.4975</v>
+        <v>97820.96135</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>76088.66889</v>
+        <v>103009.42056</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>84319.45524</v>
+        <v>106614.81382</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>84649.83014000001</v>
+        <v>116356.80943</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>87810.85400000001</v>
+        <v>110202.34236</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>87670.33927</v>
+        <v>115890.84669</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>79477.23819</v>
+        <v>114897.07164</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>166260.68618</v>
+        <v>195401.30517</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>183929.79029</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>245861.55571</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>225382.76</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>3909.83244</v>
+        <v>-19673.25019</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-2461.86985</v>
+        <v>-20769.17758</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>-1178.14254</v>
+        <v>-29345.12464</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>-3575.82637</v>
+        <v>-26454.66522</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>3585.73677</v>
+        <v>-15387.49374</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>-5689.13235</v>
+        <v>-30973.06506</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>-6689.47908</v>
+        <v>-16236.49189</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>-7678.04067</v>
+        <v>-14609.51581</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>-2205.8743</v>
+        <v>-14869.05575</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>351.3431699999999</v>
+        <v>-18933.64288</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>-14136.9223</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>-54459.83276</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>-17119.619</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>5633.838519999999</v>
+        <v>1167275.14988</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4842.64452</v>
+        <v>1135033.95315</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>5109.95651</v>
+        <v>1550243.51923</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3567.29239</v>
+        <v>1263774.41061</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5380.908240000001</v>
+        <v>477555.53455</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4386.82573</v>
+        <v>157273.1672</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6947.98227</v>
+        <v>468558.29441</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>5462.36413</v>
+        <v>111650.15495</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>6072.41309</v>
+        <v>252153.15857</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>27527.47937</v>
+        <v>847284.81243</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>13025.59374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>283000.25563</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2440820.987</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>0</v>
+        <v>193730.73904</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0</v>
+        <v>67618.08123000001</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>0</v>
+        <v>56865.20036</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>84.46430000000001</v>
+        <v>74408.84014</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>100764.77814</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>5.372520000000001</v>
+        <v>1848.9861</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>37.5</v>
+        <v>1653.53099</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>1851.38001</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>34.17607</v>
+        <v>3431.05503</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>118.80351</v>
+        <v>10205.44995</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>11738.89652</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>746.766</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>0</v>
+        <v>885121.9479800001</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>0</v>
+        <v>962317.00875</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>1368769.22042</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>0</v>
+        <v>1100819.34813</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>7.68872</v>
+        <v>281218.24192</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>42614.48066</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>294564.3638399999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>11802.07915</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0.84819</v>
+        <v>15948.36484</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>18628.1982</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>2124159.629</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>479.76281</v>
+        <v>4919.018950000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>537.4915699999999</v>
+        <v>15425.5684</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>313.20789</v>
+        <v>38028.33924999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>548.1101499999999</v>
+        <v>29637.64813</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>738.5678200000001</v>
+        <v>18192.09969</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>483.7611000000001</v>
+        <v>33966.45776999999</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>773.13994</v>
+        <v>18982.01924</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>614.9958800000001</v>
+        <v>15120.17547</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1316.17991</v>
+        <v>22147.99146</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3940.15804</v>
+        <v>37560.31488</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>3439.613139999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>19580.00016</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6597.265</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>842.8111600000001</v>
+        <v>842.9869</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>944.5578399999999</v>
+        <v>944.7696999999999</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>292.91355</v>
+        <v>553.67443</v>
       </c>
       <c r="F29" s="48" t="n">
         <v>240.37607</v>
@@ -1901,148 +1927,168 @@
         <v>111.43788</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>355.96413</v>
+        <v>565.6082700000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>195.87624</v>
+        <v>19932.64997</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>23.94566</v>
+        <v>94.9618</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>122.1709</v>
+        <v>124.24429</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>348.71643</v>
+        <v>594.96647</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>337.98228</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>570.5498</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>911.0410000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>362.89522</v>
+        <v>24001.45424</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>10.45409</v>
+        <v>26426.1368</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>158.93479</v>
+        <v>26343.79154</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>241.12291</v>
+        <v>2272.8884</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>178.31</v>
+        <v>1968.77407</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>129.11037</v>
+        <v>1959.80059</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>19.44729</v>
+        <v>1488.49477</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>670.45388</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>0</v>
+        <v>1166.99748</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>586.3390400000001</v>
+        <v>1657.22991</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>174.89944</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>1381.5617</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>918.349</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>142.75217</v>
+        <v>155.73565</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>37.66786999999999</v>
+        <v>76.48152999999999</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>67.78091000000001</v>
+        <v>1799.71903</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>54.34764</v>
+        <v>95.19502</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>49.67721</v>
+        <v>126.4102</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>34.63603</v>
+        <v>104.79406</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>35.49347</v>
+        <v>49.64512999999999</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>12.53745</v>
+        <v>128.28708</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>18.12713</v>
+        <v>23.62538</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>115.24798</v>
+        <v>249596.08659</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>147.04233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>103244.6326</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>156.956</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1583.22152</v>
+        <v>31527.20632</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2074.71414</v>
+        <v>60290.64425</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2161.95178</v>
+        <v>51443.53426000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1165.1119</v>
+        <v>49640.25581999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2183.47688</v>
+        <v>66720.25245</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1771.58152</v>
+        <v>72166.35479000001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2908.12184</v>
+        <v>127135.91614</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1870.42517</v>
+        <v>77293.42547000002</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1655.65195</v>
+        <v>203202.91359</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>18064.07861</v>
+        <v>538640.7879199999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6393.61861</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>134686.56515</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>300106.074</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>0</v>
+        <v>24.11298</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>2.59713</v>
@@ -2074,20 +2120,25 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>140.98617</v>
+        <v>141.32122</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>6.6</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>0.21739</v>
+        <v>10.32682</v>
       </c>
       <c r="F34" s="48" t="n">
         <v>0</v>
@@ -2113,128 +2164,148 @@
       <c r="M34" s="48" t="n">
         <v>3.70537</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>2081.40947</v>
+        <v>26810.6266</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1228.56188</v>
+        <v>1926.06536</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2113.34128</v>
+        <v>6428.104199999999</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1230.97469</v>
+        <v>6657.07417</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>2100.60595</v>
+        <v>8442.396419999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1595.50293</v>
+        <v>4035.78783</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2977.53733</v>
+        <v>4750.80817</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2938.25294</v>
+        <v>4687.185060000001</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2925.25894</v>
+        <v>6107.9665</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>4350.5564</v>
+        <v>9026.397349999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>2528.73257</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>-6833.853870000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>7224.511</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>3035.28254</v>
+        <v>59321.00633</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2154.26506</v>
+        <v>73807.78726000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>3981.78008</v>
+        <v>84614.57293000001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4556.486720000001</v>
+        <v>24788.1229</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>5140.080910000001</v>
+        <v>69420.91781</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3073.048</v>
+        <v>90748.33851</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5214.3733</v>
+        <v>85968.87057000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>3226.02365</v>
+        <v>55203.10528</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>2868.86887</v>
+        <v>105692.91347</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>18468.26353</v>
+        <v>158407.86472</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>8413.454370000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>199221.42971</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>157247.759</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>263.71115</v>
+        <v>266.2973</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>309.82377</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>199.63301</v>
+        <v>200.09522</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>668.4206199999999</v>
+        <v>673.54784</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>519.56167</v>
+        <v>520.1998199999999</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>469.67315</v>
+        <v>508.0642300000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>298.65007</v>
+        <v>399.9224400000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>413.7744400000001</v>
+        <v>439.40833</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>231.95157</v>
+        <v>676.3433</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>351.32726</v>
+        <v>471.06273</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1054.6579</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1368.02722</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>1341.869</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>210.06677</v>
@@ -2246,19 +2317,19 @@
         <v>894.9759299999999</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>1348.51644</v>
+        <v>1574.16504</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1163.97804</v>
+        <v>9370.720379999999</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>465.80452</v>
+        <v>32330.41564</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>237.13962</v>
+        <v>359.49412</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>99.82549</v>
+        <v>150.87137</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>244.89054</v>
@@ -2267,13 +2338,18 @@
         <v>738.6884</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>105.93301</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>223.5705</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1712.021</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>78.73029999999999</v>
@@ -2288,70 +2364,80 @@
         <v>5.8386</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>4.03149</v>
+        <v>221.46649</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>15.74458</v>
+        <v>152.96968</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>800.68864</v>
+        <v>1022.53864</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>50.43863</v>
+        <v>58.55863</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0.7881900000000001</v>
+        <v>877.95253</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>92.733</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>438.30036</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>71.223</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1544.40895</v>
+        <v>57435.5731</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1421.12901</v>
+        <v>72605.02866</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>2576.23412</v>
+        <v>81116.68083000001</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2109.02209</v>
+        <v>19986.83062</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2309.66808</v>
+        <v>55628.38289</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1503.18479</v>
+        <v>55222.54235000001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>3298.6906</v>
+        <v>81768.07459</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2204.07108</v>
+        <v>51854.02638</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1922.03794</v>
+        <v>101279.38758</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>16589.4336</v>
+        <v>153744.77369</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6312.021809999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>193821.82912</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>147292.446</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>481.76</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2411,13 +2502,13 @@
         <v>1e-05</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>5e-05</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>0</v>
+        <v>0.17607</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>0.00014</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>1.88881</v>
@@ -2425,362 +2516,412 @@
       <c r="M42" s="48" t="n">
         <v>0.37803</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>2.704</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>456.60537</v>
+        <v>848.5788600000001</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>395.68228</v>
+        <v>865.30483</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>305.12641</v>
+        <v>2397.01034</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>419.68897</v>
+        <v>2542.7408</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1139.17763</v>
+        <v>3676.48423</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>618.64095</v>
+        <v>2534.3466</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>579.20437</v>
+        <v>2418.84073</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>457.91401</v>
+        <v>2700.064499999999</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>469.20063</v>
+        <v>2614.33938</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>786.9254599999999</v>
+        <v>3451.45109</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>847.7306199999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>3369.32448</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>6827.496</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>3363.186369999999</v>
+        <v>429217.7418200001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1916.80145</v>
+        <v>373622.84988</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>2109.93412</v>
+        <v>619986.0592600001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2346.20027</v>
+        <v>509088.51459</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3095.59574</v>
+        <v>23214.98147</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1908.39257</v>
+        <v>23149.16221</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>3216.83485</v>
+        <v>22932.11692</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>2168.26942</v>
+        <v>4675.02024</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>3176.36625</v>
+        <v>7984.792949999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>9246.763660000001</v>
+        <v>13595.07699</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>8389.044820000001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>15468.95967</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>15530.23</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>3197.67984</v>
+        <v>12615.37561</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1674.41299</v>
+        <v>10180.23624</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>2060.2575</v>
+        <v>14855.66284</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2286.84517</v>
+        <v>18536.78162</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3082.40859</v>
+        <v>23196.03407</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>1814.56971</v>
+        <v>22759.96392</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>3097.75566</v>
+        <v>22772.94435</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>2082.71458</v>
+        <v>4548.75927</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>3042.89168</v>
+        <v>7827.520629999999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>8997.356519999999</v>
+        <v>13345.66985</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>8262.60037</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>15033.72595</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>15450.937</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>165.50653</v>
+        <v>416602.36621</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>242.38846</v>
+        <v>363442.61364</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>49.67661999999999</v>
+        <v>605130.39642</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>59.35509999999999</v>
+        <v>490551.73297</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>13.18715</v>
+        <v>18.9474</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>93.82285999999999</v>
+        <v>389.19829</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>119.07919</v>
+        <v>159.17257</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>85.55484</v>
+        <v>126.26097</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>133.47457</v>
+        <v>157.27232</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>249.40714</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>126.44445</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>435.23372</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>79.29300000000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3145.20205</v>
+        <v>659063.1515400001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-1690.29184</v>
+        <v>666834.13843</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-2159.90023</v>
+        <v>816297.7624000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-6911.220969999999</v>
+        <v>703443.1078999999</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>730.9683600000001</v>
+        <v>369532.14153</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-6283.747189999999</v>
+        <v>12402.60142</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-8172.70496</v>
+        <v>343420.8150300001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-7609.96961</v>
+        <v>37162.51362</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-2178.69633</v>
+        <v>123606.3964</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>163.7953499999996</v>
+        <v>656348.2278400001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>-17913.82775</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>13850.03349</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2250923.379</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>3687.03477</v>
+        <v>5730.359530000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2069.38912</v>
+        <v>4200.57164</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2217.41168</v>
+        <v>321149.36636</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2046.37824</v>
+        <v>4115.22846</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3406.56378</v>
+        <v>7037.31128</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>3572.54631</v>
+        <v>37282.64635</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4757.898929999999</v>
+        <v>35084.30404</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2329.82799</v>
+        <v>4838.19909</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>3447.63356</v>
+        <v>7652.813069999998</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>7147.21625</v>
+        <v>13432.58188</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>7765.986130000001</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>12555.32767</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>14609.358</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>94.12778000000002</v>
+        <v>198.87978</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>239.6517</v>
+        <v>270.60219</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>2.69548</v>
+        <v>4.170319999999999</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>97.63916</v>
+        <v>97.63958</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>65.75261</v>
+        <v>96.59952</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>49.52954</v>
+        <v>102.71287</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>87.05398000000001</v>
+        <v>290.54044</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>36.39836999999999</v>
+        <v>74.10212</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>78.06622</v>
+        <v>589.7137100000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>185.22752</v>
+        <v>223.83947</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>73.60445</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>88.33738000000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>128.148</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>3592.90699</v>
+        <v>5531.47975</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1829.73742</v>
+        <v>3929.96945</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2214.7162</v>
+        <v>321145.19604</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>1948.73908</v>
+        <v>4017.58888</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3340.81117</v>
+        <v>6940.71176</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>3523.01677</v>
+        <v>37179.93348</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>4670.844950000001</v>
+        <v>34793.76359999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2293.42962</v>
+        <v>4764.09697</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>3369.56734</v>
+        <v>7063.09936</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>6961.98873</v>
+        <v>13208.74241</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>7692.38168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>12466.99029</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>14481.21</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2247.04814</v>
+        <v>3090.89137</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1658.7796</v>
+        <v>14948.83018</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>21783.58474</v>
+        <v>1005675.07873</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4647.47669</v>
+        <v>7889.5729</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3357.56143</v>
+        <v>194831.16617</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>11292.63246</v>
+        <v>64351.90282</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>11007.61382</v>
+        <v>16512.85041</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>18120.19287</v>
+        <v>22545.54626</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>4957.61784</v>
+        <v>8877.33668</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>35879.83691999999</v>
+        <v>41588.47239</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>10117.69819</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>56154.9007</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>65982.28200000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>10.75158</v>
@@ -2795,13 +2936,13 @@
         <v>129.17038</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>0</v>
+        <v>5.1967</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>142.53687</v>
+        <v>219.89628</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>0</v>
@@ -2813,205 +2954,233 @@
         <v>32.71217</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>24.83859</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1199.02693</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>197.004</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>75.42407</v>
+        <v>669.9134099999999</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>86.91096999999999</v>
+        <v>1358.95706</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>6428.97763</v>
+        <v>12878.14988</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1107.07746</v>
+        <v>1115.50783</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>185.14267</v>
+        <v>3003.00291</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>764.64739</v>
+        <v>1054.01157</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>514.22819</v>
+        <v>2944.84407</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>4934.98927</v>
+        <v>5451.530369999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>234.94592</v>
+        <v>349.05128</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>397.3914599999999</v>
+        <v>577.9469300000001</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>229.17561</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>474.854</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>811.569</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>2160.87249</v>
+        <v>2410.22638</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>1549.92605</v>
+        <v>13567.93054</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>15295.72458</v>
+        <v>992738.04632</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3411.22885</v>
+        <v>6644.894689999999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3172.41876</v>
+        <v>191822.96656</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>10527.98507</v>
+        <v>63297.89124</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>10350.84876</v>
+        <v>13348.11006</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>13185.2036</v>
+        <v>17094.01589</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>4594.10781</v>
+        <v>8399.721290000001</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>35449.73329</v>
+        <v>40977.81329</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>9863.68399</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>54481.01977000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>64973.709</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>4585.188679999999</v>
+        <v>661702.6197</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-1279.68232</v>
+        <v>656085.8798900001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-21726.07329</v>
+        <v>131772.05003</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-9512.31942</v>
+        <v>699668.7634599999</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>779.9707099999999</v>
+        <v>181738.28664</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-14003.83334</v>
+        <v>-14666.65505</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-14422.41985</v>
+        <v>361992.2686599999</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-23400.33449</v>
+        <v>19455.16645</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-3688.68061</v>
+        <v>122381.87279</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-28568.82532</v>
+        <v>628192.3373300001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>-20265.53981</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-29749.53954</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2199550.455</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2738.95043</v>
+        <v>2796.01376</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2367.8946</v>
+        <v>4748.84821</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2953.7029</v>
+        <v>3663.6585</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>2904.92765</v>
+        <v>4019.31816</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>3163.92187</v>
+        <v>9896.329809999999</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>2972.25858</v>
+        <v>12301.73441</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>3324.0968</v>
+        <v>25062.0572</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>3109.84356</v>
+        <v>5412.077429999999</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2427.82724</v>
+        <v>21740.91141</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>7671.73175</v>
+        <v>100794.87993</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>6574.78965</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>9011.80708</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>43432.402</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>1846.23825</v>
+        <v>658906.6059399999</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-3647.57692</v>
+        <v>651337.0316799999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-24679.77619</v>
+        <v>128108.39153</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-12417.24707</v>
+        <v>695649.4453</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-2383.95116</v>
+        <v>171841.95683</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-16976.09192</v>
+        <v>-26968.38946</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-17746.51665</v>
+        <v>336930.21146</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-26510.17805</v>
+        <v>14043.08902</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-6116.507850000001</v>
+        <v>100640.96138</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-36240.55707</v>
+        <v>527397.4574</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-26840.32946</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-38761.34662</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2156118.053</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>1540</v>
+        <v>1592</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1578</v>
+        <v>1652</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1566</v>
+        <v>1646</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1551</v>
+        <v>1653</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1576</v>
+        <v>1692</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1578</v>
+        <v>1709</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>1513</v>
+        <v>1672</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>1361</v>
+        <v>1658</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>1283</v>
+        <v>1575</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>1628</v>
+        <v>1756</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>1561</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1763</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1757</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>